--- a/data_quarter/zb/农业/农林牧渔业总产值.xlsx
+++ b/data_quarter/zb/农业/农林牧渔业总产值.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,36 @@
           <t>牧业总产值_累计值</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>农业总产值</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>农林牧渔业总产值</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>林业总产值</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>渔业总产值</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>牧业总产值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年第一季度</t>
+          <t>2002年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -481,55 +506,100 @@
       <c r="F2" t="n">
         <v>1976</v>
       </c>
+      <c r="G2" t="n">
+        <v>1056.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3535.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年第三季度</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8976.09</v>
+        <v>4152.9</v>
       </c>
       <c r="C3" t="n">
-        <v>17072.65</v>
+        <v>9261.700000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>565.17</v>
+        <v>380.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1634.51</v>
+        <v>1000</v>
       </c>
       <c r="F3" t="n">
-        <v>5892.89</v>
+        <v>3728.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3096.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5726.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>604.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1752.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年第二季度</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4152.9</v>
+        <v>8976.09</v>
       </c>
       <c r="C4" t="n">
-        <v>9261.700000000001</v>
+        <v>17072.65</v>
       </c>
       <c r="D4" t="n">
-        <v>380.1</v>
+        <v>565.17</v>
       </c>
       <c r="E4" t="n">
-        <v>1000</v>
+        <v>1634.51</v>
       </c>
       <c r="F4" t="n">
-        <v>3728.7</v>
+        <v>5892.89</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4823.190000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7810.950000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>185.0699999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>634.51</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2164.190000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2002年第四季度</t>
+          <t>2002年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -547,11 +617,26 @@
       <c r="F5" t="n">
         <v>8454.6</v>
       </c>
+      <c r="G5" t="n">
+        <v>5955.41</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10318.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>468.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1336.59</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2561.71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2003年第一季度</t>
+          <t>2003年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -569,55 +654,100 @@
       <c r="F6" t="n">
         <v>2212</v>
       </c>
+      <c r="G6" t="n">
+        <v>1087.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3893.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>411.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2212</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2003年第三季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9081.799999999999</v>
+        <v>4067.9</v>
       </c>
       <c r="C7" t="n">
-        <v>17914.71</v>
+        <v>9664.76</v>
       </c>
       <c r="D7" t="n">
-        <v>723.2</v>
+        <v>469.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1708.5</v>
+        <v>1061.8</v>
       </c>
       <c r="F7" t="n">
-        <v>6401.1</v>
+        <v>4065.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2980.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5771.56</v>
+      </c>
+      <c r="I7" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>649.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1853.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4067.9</v>
+        <v>9081.799999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9664.76</v>
+        <v>17914.71</v>
       </c>
       <c r="D8" t="n">
-        <v>469.5</v>
+        <v>723.2</v>
       </c>
       <c r="E8" t="n">
-        <v>1061.8</v>
+        <v>1708.5</v>
       </c>
       <c r="F8" t="n">
-        <v>4065.6</v>
+        <v>6401.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5013.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8249.949999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>253.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>646.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2335.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -635,11 +765,26 @@
       <c r="F9" t="n">
         <v>9538.799999999999</v>
       </c>
+      <c r="G9" t="n">
+        <v>5788.300000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11777.09</v>
+      </c>
+      <c r="I9" t="n">
+        <v>516.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1429.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3137.699999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -657,55 +802,100 @@
       <c r="F10" t="n">
         <v>2700.26091711265</v>
       </c>
+      <c r="G10" t="n">
+        <v>1216.36007674952</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4834.23498274512</v>
+      </c>
+      <c r="I10" t="n">
+        <v>195.316515772645</v>
+      </c>
+      <c r="J10" t="n">
+        <v>530.79026157813</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2700.26091711265</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11114.4316237679</v>
+        <v>5002.6</v>
       </c>
       <c r="C11" t="n">
-        <v>22742.7990593764</v>
+        <v>12295.6</v>
       </c>
       <c r="D11" t="n">
-        <v>769.373386393739</v>
+        <v>514.4</v>
       </c>
       <c r="E11" t="n">
-        <v>1992.24376857048</v>
+        <v>1255.6</v>
       </c>
       <c r="F11" t="n">
-        <v>8164.12825021329</v>
+        <v>5096.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3786.23992325048</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7461.365017254881</v>
+      </c>
+      <c r="I11" t="n">
+        <v>319.083484227355</v>
+      </c>
+      <c r="J11" t="n">
+        <v>724.80973842187</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2395.83908288735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5002.6</v>
+        <v>11114.4316237679</v>
       </c>
       <c r="C12" t="n">
-        <v>12295.6</v>
+        <v>22742.7990593764</v>
       </c>
       <c r="D12" t="n">
-        <v>514.4</v>
+        <v>769.373386393739</v>
       </c>
       <c r="E12" t="n">
-        <v>1255.6</v>
+        <v>1992.24376857048</v>
       </c>
       <c r="F12" t="n">
-        <v>5096.1</v>
+        <v>8164.12825021329</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6111.831623767899</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10447.1990593764</v>
+      </c>
+      <c r="I12" t="n">
+        <v>254.973386393739</v>
+      </c>
+      <c r="J12" t="n">
+        <v>736.64376857048</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3068.02825021329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -723,11 +913,26 @@
       <c r="F13" t="n">
         <v>12173.8</v>
       </c>
+      <c r="G13" t="n">
+        <v>7023.968376232102</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13496.2009406236</v>
+      </c>
+      <c r="I13" t="n">
+        <v>557.7266136062609</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1613.35623142952</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4009.671749786709</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -745,55 +950,100 @@
       <c r="F14" t="n">
         <v>3183.4872712931</v>
       </c>
+      <c r="G14" t="n">
+        <v>1350.10447012759</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5556.42276055046</v>
+      </c>
+      <c r="I14" t="n">
+        <v>208.503404721417</v>
+      </c>
+      <c r="J14" t="n">
+        <v>604.706370082964</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3183.4872712931</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12215.5091126878</v>
+        <v>5439.12426172611</v>
       </c>
       <c r="C15" t="n">
-        <v>25118.3042353349</v>
+        <v>13647.085586849</v>
       </c>
       <c r="D15" t="n">
-        <v>824.873428798527</v>
+        <v>548.724698507636</v>
       </c>
       <c r="E15" t="n">
-        <v>2221.68661437154</v>
+        <v>1382.87739871175</v>
       </c>
       <c r="F15" t="n">
-        <v>9073.11470676277</v>
+        <v>5808.80162916247</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4089.01979159852</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8090.66282629854</v>
+      </c>
+      <c r="I15" t="n">
+        <v>340.221293786219</v>
+      </c>
+      <c r="J15" t="n">
+        <v>778.171028628786</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2625.31435786937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5439.12426172611</v>
+        <v>12215.5091126878</v>
       </c>
       <c r="C16" t="n">
-        <v>13647.085586849</v>
+        <v>25118.3042353349</v>
       </c>
       <c r="D16" t="n">
-        <v>548.724698507636</v>
+        <v>824.873428798527</v>
       </c>
       <c r="E16" t="n">
-        <v>1382.87739871175</v>
+        <v>2221.68661437154</v>
       </c>
       <c r="F16" t="n">
-        <v>5808.80162916247</v>
+        <v>9073.11470676277</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6776.38485096169</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11471.2186484859</v>
+      </c>
+      <c r="I16" t="n">
+        <v>276.148730290891</v>
+      </c>
+      <c r="J16" t="n">
+        <v>838.8092156597902</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3264.3130776003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -811,11 +1061,26 @@
       <c r="F17" t="n">
         <v>13310.8</v>
       </c>
+      <c r="G17" t="n">
+        <v>7397.890887312202</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14332.5957646651</v>
+      </c>
+      <c r="I17" t="n">
+        <v>600.626571201473</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1794.41338562846</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4237.685293237229</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -833,55 +1098,100 @@
       <c r="F18" t="n">
         <v>3049.1</v>
       </c>
+      <c r="G18" t="n">
+        <v>1653.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5810.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>223.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3049.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13594.4</v>
+        <v>6300.8</v>
       </c>
       <c r="C19" t="n">
-        <v>26743</v>
+        <v>14564</v>
       </c>
       <c r="D19" t="n">
-        <v>936.2</v>
+        <v>594</v>
       </c>
       <c r="E19" t="n">
-        <v>2460.2</v>
+        <v>1536.8</v>
       </c>
       <c r="F19" t="n">
-        <v>8901.1</v>
+        <v>5623.6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4647.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8753.200000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>370.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>878.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2574.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6300.8</v>
+        <v>13594.4</v>
       </c>
       <c r="C20" t="n">
-        <v>14564</v>
+        <v>26743</v>
       </c>
       <c r="D20" t="n">
-        <v>594</v>
+        <v>936.2</v>
       </c>
       <c r="E20" t="n">
-        <v>1536.8</v>
+        <v>2460.2</v>
       </c>
       <c r="F20" t="n">
-        <v>5623.6</v>
+        <v>8901.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7293.599999999999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12179</v>
+      </c>
+      <c r="I20" t="n">
+        <v>342.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>923.3999999999999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3277.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -899,11 +1209,26 @@
       <c r="F21" t="n">
         <v>12083.86</v>
       </c>
+      <c r="G21" t="n">
+        <v>7927.879999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14067.83</v>
+      </c>
+      <c r="I21" t="n">
+        <v>674.6109999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1510.325</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3182.76</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -921,55 +1246,100 @@
       <c r="F22" t="n">
         <v>3388</v>
       </c>
+      <c r="G22" t="n">
+        <v>1813</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6474</v>
+      </c>
+      <c r="I22" t="n">
+        <v>260</v>
+      </c>
+      <c r="J22" t="n">
+        <v>694</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3388</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15229.3398974551</v>
+        <v>6942</v>
       </c>
       <c r="C23" t="n">
-        <v>31496.0130135029</v>
+        <v>16381</v>
       </c>
       <c r="D23" t="n">
-        <v>1042.58925624017</v>
+        <v>659</v>
       </c>
       <c r="E23" t="n">
-        <v>2701.61062918999</v>
+        <v>1590</v>
       </c>
       <c r="F23" t="n">
-        <v>11576.350184826</v>
+        <v>6493</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5129</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9907</v>
+      </c>
+      <c r="I23" t="n">
+        <v>399</v>
+      </c>
+      <c r="J23" t="n">
+        <v>896</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6942</v>
+        <v>15229.3398974551</v>
       </c>
       <c r="C24" t="n">
-        <v>16381</v>
+        <v>31496.0130135029</v>
       </c>
       <c r="D24" t="n">
-        <v>659</v>
+        <v>1042.58925624017</v>
       </c>
       <c r="E24" t="n">
-        <v>1590</v>
+        <v>2701.61062918999</v>
       </c>
       <c r="F24" t="n">
-        <v>6493</v>
+        <v>11576.350184826</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8287.3398974551</v>
+      </c>
+      <c r="H24" t="n">
+        <v>15115.0130135029</v>
+      </c>
+      <c r="I24" t="n">
+        <v>383.58925624017</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1111.61062918999</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5083.350184826</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -987,11 +1357,26 @@
       <c r="F25" t="n">
         <v>16068.6203025761</v>
       </c>
+      <c r="G25" t="n">
+        <v>9215.339725635398</v>
+      </c>
+      <c r="H25" t="n">
+        <v>17155.7532472935</v>
+      </c>
+      <c r="I25" t="n">
+        <v>847.3426949914399</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1726.3171576988</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4492.2701177501</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1009,55 +1394,100 @@
       <c r="F26" t="n">
         <v>4885</v>
       </c>
+      <c r="G26" t="n">
+        <v>2187</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8548</v>
+      </c>
+      <c r="I26" t="n">
+        <v>299</v>
+      </c>
+      <c r="J26" t="n">
+        <v>816</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4885</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17883.6479329451</v>
+        <v>8192</v>
       </c>
       <c r="C27" t="n">
-        <v>37727.8382551342</v>
+        <v>19613</v>
       </c>
       <c r="D27" t="n">
-        <v>1228.78604622061</v>
+        <v>764</v>
       </c>
       <c r="E27" t="n">
-        <v>3036.5240848285</v>
+        <v>1866</v>
       </c>
       <c r="F27" t="n">
-        <v>14233.2962391343</v>
+        <v>9273</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6005</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11065</v>
+      </c>
+      <c r="I27" t="n">
+        <v>465</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1050</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4388</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8192</v>
+        <v>17883.6479329451</v>
       </c>
       <c r="C28" t="n">
-        <v>19613</v>
+        <v>37727.8382551342</v>
       </c>
       <c r="D28" t="n">
-        <v>764</v>
+        <v>1228.78604622061</v>
       </c>
       <c r="E28" t="n">
-        <v>1866</v>
+        <v>3036.5240848285</v>
       </c>
       <c r="F28" t="n">
-        <v>9273</v>
+        <v>14233.2962391343</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9691.647932945099</v>
+      </c>
+      <c r="H28" t="n">
+        <v>18114.8382551342</v>
+      </c>
+      <c r="I28" t="n">
+        <v>464.7860462206099</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1170.5240848285</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4960.296239134301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1075,11 +1505,26 @@
       <c r="F29" t="n">
         <v>20354.1954318075</v>
       </c>
+      <c r="G29" t="n">
+        <v>9796.290235405999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>19692.9275038229</v>
+      </c>
+      <c r="I29" t="n">
+        <v>951.52012238526</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2101.00643434508</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6120.8991926732</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1097,55 +1542,100 @@
       <c r="F30" t="n">
         <v>4696.63357598848</v>
       </c>
+      <c r="G30" t="n">
+        <v>2270.95458158578</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8509.106849146659</v>
+      </c>
+      <c r="I30" t="n">
+        <v>316.338686735174</v>
+      </c>
+      <c r="J30" t="n">
+        <v>854.208445171168</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4696.63357598848</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19431.998183</v>
+        <v>8914.626167</v>
       </c>
       <c r="C31" t="n">
-        <v>38716.62794</v>
+        <v>21046.475504</v>
       </c>
       <c r="D31" t="n">
-        <v>1307.467299</v>
+        <v>817.09813</v>
       </c>
       <c r="E31" t="n">
-        <v>3146.233849</v>
+        <v>1941.819145</v>
       </c>
       <c r="F31" t="n">
-        <v>13377.764212</v>
+        <v>8529.847216</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6643.67158541422</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12537.36865485334</v>
+      </c>
+      <c r="I31" t="n">
+        <v>500.759443264826</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1087.610699828832</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3833.213640011521</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8914.626167</v>
+        <v>19431.998183</v>
       </c>
       <c r="C32" t="n">
-        <v>21046.475504</v>
+        <v>38716.62794</v>
       </c>
       <c r="D32" t="n">
-        <v>817.09813</v>
+        <v>1307.467299</v>
       </c>
       <c r="E32" t="n">
-        <v>1941.819145</v>
+        <v>3146.233849</v>
       </c>
       <c r="F32" t="n">
-        <v>8529.847216</v>
+        <v>13377.764212</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10517.372016</v>
+      </c>
+      <c r="H32" t="n">
+        <v>17670.152436</v>
+      </c>
+      <c r="I32" t="n">
+        <v>490.3691689999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1204.414704</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4847.916996</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1163,11 +1653,26 @@
       <c r="F33" t="n">
         <v>18908.4368521907</v>
       </c>
+      <c r="G33" t="n">
+        <v>10504.9004538487</v>
+      </c>
+      <c r="H33" t="n">
+        <v>20416.1724706209</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1069.10060416564</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2377.806303950199</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5530.672640190702</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1185,55 +1690,100 @@
       <c r="F34" t="n">
         <v>4699.320409</v>
       </c>
+      <c r="G34" t="n">
+        <v>2722.449755</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9171.288495999999</v>
+      </c>
+      <c r="I34" t="n">
+        <v>375.14219</v>
+      </c>
+      <c r="J34" t="n">
+        <v>956.846596</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4699.320409</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23483.337471</v>
+        <v>10578.763625</v>
       </c>
       <c r="C35" t="n">
-        <v>43916.590786</v>
+        <v>23321.160386</v>
       </c>
       <c r="D35" t="n">
-        <v>1588.715127</v>
+        <v>979.678365</v>
       </c>
       <c r="E35" t="n">
-        <v>3566.402459</v>
+        <v>2189.194365</v>
       </c>
       <c r="F35" t="n">
-        <v>13669.723902</v>
+        <v>8645.676518</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7856.31387</v>
+      </c>
+      <c r="H35" t="n">
+        <v>14149.87189</v>
+      </c>
+      <c r="I35" t="n">
+        <v>604.536175</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1232.347769</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3946.356109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10578.763625</v>
+        <v>23483.337471</v>
       </c>
       <c r="C36" t="n">
-        <v>23321.160386</v>
+        <v>43916.590786</v>
       </c>
       <c r="D36" t="n">
-        <v>979.678365</v>
+        <v>1588.715127</v>
       </c>
       <c r="E36" t="n">
-        <v>2189.194365</v>
+        <v>3566.402459</v>
       </c>
       <c r="F36" t="n">
-        <v>8645.676518</v>
+        <v>13669.723902</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12904.573846</v>
+      </c>
+      <c r="H36" t="n">
+        <v>20595.4304</v>
+      </c>
+      <c r="I36" t="n">
+        <v>609.036762</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1377.208094</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5024.047384</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1251,11 +1801,26 @@
       <c r="F37" t="n">
         <v>20461.0770138634</v>
       </c>
+      <c r="G37" t="n">
+        <v>12425.728713359</v>
+      </c>
+      <c r="H37" t="n">
+        <v>23846.5434882221</v>
+      </c>
+      <c r="I37" t="n">
+        <v>986.3190176145199</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2696.96809871473</v>
+      </c>
+      <c r="K37" t="n">
+        <v>6791.3531118634</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1273,55 +1838,100 @@
       <c r="F38" t="n">
         <v>5541.864005</v>
       </c>
+      <c r="G38" t="n">
+        <v>3120.061484</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10673.242695</v>
+      </c>
+      <c r="I38" t="n">
+        <v>446.97242</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1085.032245</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5541.864005</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27109.8</v>
+        <v>11931.146955</v>
       </c>
       <c r="C39" t="n">
-        <v>52132.1</v>
+        <v>27384.484768</v>
       </c>
       <c r="D39" t="n">
-        <v>1833.5</v>
+        <v>1216.896455</v>
       </c>
       <c r="E39" t="n">
-        <v>4261.4</v>
+        <v>2525.147333</v>
       </c>
       <c r="F39" t="n">
-        <v>17117.1</v>
+        <v>10662.700044</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8811.085471</v>
+      </c>
+      <c r="H39" t="n">
+        <v>16711.242073</v>
+      </c>
+      <c r="I39" t="n">
+        <v>769.924035</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1440.115088</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5120.836038999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11931.146955</v>
+        <v>27109.8</v>
       </c>
       <c r="C40" t="n">
-        <v>27384.484768</v>
+        <v>52132.1</v>
       </c>
       <c r="D40" t="n">
-        <v>1216.896455</v>
+        <v>1833.5</v>
       </c>
       <c r="E40" t="n">
-        <v>2525.147333</v>
+        <v>4261.4</v>
       </c>
       <c r="F40" t="n">
-        <v>10662.700044</v>
+        <v>17117.1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>15178.653045</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24747.615232</v>
+      </c>
+      <c r="I40" t="n">
+        <v>616.6035449999999</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1736.252667</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6454.399955999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1339,11 +1949,26 @@
       <c r="F41" t="n">
         <v>25194.1631377629</v>
       </c>
+      <c r="G41" t="n">
+        <v>13229.8228439432</v>
+      </c>
+      <c r="H41" t="n">
+        <v>26704.8774171036</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1258.9388015974</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3075.9725208208</v>
+      </c>
+      <c r="K41" t="n">
+        <v>8077.0631377629</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1361,55 +1986,100 @@
       <c r="F42" t="n">
         <v>6485.2</v>
       </c>
+      <c r="G42" t="n">
+        <v>3567.5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>12329.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>517.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1249.7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6485.2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29782</v>
+        <v>13366.6</v>
       </c>
       <c r="C43" t="n">
-        <v>56838</v>
+        <v>30458.9</v>
       </c>
       <c r="D43" t="n">
-        <v>2018</v>
+        <v>1404.9</v>
       </c>
       <c r="E43" t="n">
-        <v>4857</v>
+        <v>2917.7</v>
       </c>
       <c r="F43" t="n">
-        <v>18149</v>
+        <v>11620.9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9799.1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>18129.5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>887.3000000000001</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1668</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5135.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13366.6</v>
+        <v>29782</v>
       </c>
       <c r="C44" t="n">
-        <v>30458.9</v>
+        <v>56838</v>
       </c>
       <c r="D44" t="n">
-        <v>1404.9</v>
+        <v>2018</v>
       </c>
       <c r="E44" t="n">
-        <v>2917.7</v>
+        <v>4857</v>
       </c>
       <c r="F44" t="n">
-        <v>11620.9</v>
+        <v>18149</v>
+      </c>
+      <c r="G44" t="n">
+        <v>16415.4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>26379.1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>613.0999999999999</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1939.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6528.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1427,11 +2097,26 @@
       <c r="F45" t="n">
         <v>26491.2089136203</v>
       </c>
+      <c r="G45" t="n">
+        <v>15063.7211624986</v>
+      </c>
+      <c r="H45" t="n">
+        <v>29504.15223565089</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1388.97085950325</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3546.91482110815</v>
+      </c>
+      <c r="K45" t="n">
+        <v>8342.208913620299</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1449,55 +2134,100 @@
       <c r="F46" t="n">
         <v>6838.4</v>
       </c>
+      <c r="G46" t="n">
+        <v>3862.2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>13206.4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>564.1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1390.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6838.4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>32332.8</v>
+        <v>14666</v>
       </c>
       <c r="C47" t="n">
-        <v>60984.3</v>
+        <v>32364.7</v>
       </c>
       <c r="D47" t="n">
-        <v>2216.4</v>
+        <v>1517.3</v>
       </c>
       <c r="E47" t="n">
-        <v>5362.6</v>
+        <v>3220.6</v>
       </c>
       <c r="F47" t="n">
-        <v>18860.1</v>
+        <v>11694.3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10803.8</v>
+      </c>
+      <c r="H47" t="n">
+        <v>19158.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>953.1999999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1830.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4855.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>14666</v>
+        <v>32332.8</v>
       </c>
       <c r="C48" t="n">
-        <v>32364.7</v>
+        <v>60984.3</v>
       </c>
       <c r="D48" t="n">
-        <v>1517.3</v>
+        <v>2216.4</v>
       </c>
       <c r="E48" t="n">
-        <v>3220.6</v>
+        <v>5362.6</v>
       </c>
       <c r="F48" t="n">
-        <v>11694.3</v>
+        <v>18860.1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>17666.8</v>
+      </c>
+      <c r="H48" t="n">
+        <v>28619.6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>699.1000000000001</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2142</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7165.799999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1515,11 +2245,26 @@
       <c r="F49" t="n">
         <v>27572.3688554741</v>
       </c>
+      <c r="G49" t="n">
+        <v>16611.1377789756</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32189.39985675309</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1631.0385215052</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3891.878650547949</v>
+      </c>
+      <c r="K49" t="n">
+        <v>8712.2688554741</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1537,55 +2282,100 @@
       <c r="F50" t="n">
         <v>6709.4</v>
       </c>
+      <c r="G50" t="n">
+        <v>4292.6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>13730</v>
+      </c>
+      <c r="I50" t="n">
+        <v>634.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1484.9</v>
+      </c>
+      <c r="K50" t="n">
+        <v>6709.4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>34799.1</v>
+        <v>16000.4</v>
       </c>
       <c r="C51" t="n">
-        <v>64934.4</v>
+        <v>34300.4</v>
       </c>
       <c r="D51" t="n">
-        <v>2527.1</v>
+        <v>1688.7</v>
       </c>
       <c r="E51" t="n">
-        <v>5773</v>
+        <v>3455.5</v>
       </c>
       <c r="F51" t="n">
-        <v>19395.6</v>
+        <v>11766.8</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11707.8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20570.4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1054</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1970.6</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5057.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>16000.4</v>
+        <v>34799.1</v>
       </c>
       <c r="C52" t="n">
-        <v>34300.4</v>
+        <v>64934.4</v>
       </c>
       <c r="D52" t="n">
-        <v>1688.7</v>
+        <v>2527.1</v>
       </c>
       <c r="E52" t="n">
-        <v>3455.5</v>
+        <v>5773</v>
       </c>
       <c r="F52" t="n">
-        <v>11766.8</v>
+        <v>19395.6</v>
+      </c>
+      <c r="G52" t="n">
+        <v>18798.7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>30634</v>
+      </c>
+      <c r="I52" t="n">
+        <v>838.3999999999999</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2317.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>7628.799999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1603,11 +2393,26 @@
       <c r="F53" t="n">
         <v>27963.3867736564</v>
       </c>
+      <c r="G53" t="n">
+        <v>17052.0221601811</v>
+      </c>
+      <c r="H53" t="n">
+        <v>32888.1134327064</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1662.88172007347</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4104.53696058354</v>
+      </c>
+      <c r="K53" t="n">
+        <v>8567.7867736564</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1625,55 +2430,100 @@
       <c r="F54" t="n">
         <v>6715.9</v>
       </c>
+      <c r="G54" t="n">
+        <v>4614.7</v>
+      </c>
+      <c r="H54" t="n">
+        <v>14221.6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>644.6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1586.4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>6715.9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>36382.3</v>
+        <v>17419.3</v>
       </c>
       <c r="C55" t="n">
-        <v>67892.2</v>
+        <v>36293.9</v>
       </c>
       <c r="D55" t="n">
-        <v>2630.6</v>
+        <v>1758.7</v>
       </c>
       <c r="E55" t="n">
-        <v>6111.8</v>
+        <v>3668.7</v>
       </c>
       <c r="F55" t="n">
-        <v>20130.5</v>
+        <v>11934.1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>12804.6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>22072.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1114.1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2082.3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>5218.200000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>17419.3</v>
+        <v>36382.3</v>
       </c>
       <c r="C56" t="n">
-        <v>36293.9</v>
+        <v>67892.2</v>
       </c>
       <c r="D56" t="n">
-        <v>1758.7</v>
+        <v>2630.6</v>
       </c>
       <c r="E56" t="n">
-        <v>3668.7</v>
+        <v>6111.8</v>
       </c>
       <c r="F56" t="n">
-        <v>11934.1</v>
+        <v>20130.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>18963</v>
+      </c>
+      <c r="H56" t="n">
+        <v>31598.3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>871.8999999999999</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2443.1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>8196.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1691,11 +2541,26 @@
       <c r="F57" t="n">
         <v>28649.320296726</v>
       </c>
+      <c r="G57" t="n">
+        <v>17823.0353679747</v>
+      </c>
+      <c r="H57" t="n">
+        <v>34001.32499313301</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1727.84666386536</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4227.286928111101</v>
+      </c>
+      <c r="K57" t="n">
+        <v>8518.820296726</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1713,55 +2578,100 @@
       <c r="F58" t="n">
         <v>7668.85379144884</v>
       </c>
+      <c r="G58" t="n">
+        <v>5292.14019162009</v>
+      </c>
+      <c r="H58" t="n">
+        <v>16119.2955498729</v>
+      </c>
+      <c r="I58" t="n">
+        <v>695.854550283716</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1731.17863432581</v>
+      </c>
+      <c r="K58" t="n">
+        <v>7668.85379144884</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>37845.43993</v>
+        <v>18469.4532421437</v>
       </c>
       <c r="C59" t="n">
-        <v>72058.26886</v>
+        <v>39654.3841816368</v>
       </c>
       <c r="D59" t="n">
-        <v>2728.825777</v>
+        <v>1851.2449962025</v>
       </c>
       <c r="E59" t="n">
-        <v>6575.56979</v>
+        <v>3960.4059282715</v>
       </c>
       <c r="F59" t="n">
-        <v>21985.28344</v>
+        <v>13685.9226810268</v>
+      </c>
+      <c r="G59" t="n">
+        <v>13177.31305052361</v>
+      </c>
+      <c r="H59" t="n">
+        <v>23535.0886317639</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1155.390445918784</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2229.22729394569</v>
+      </c>
+      <c r="K59" t="n">
+        <v>6017.068889577959</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>18469.4532421437</v>
+        <v>37845.43993</v>
       </c>
       <c r="C60" t="n">
-        <v>39654.3841816368</v>
+        <v>72058.26886</v>
       </c>
       <c r="D60" t="n">
-        <v>1851.2449962025</v>
+        <v>2728.825777</v>
       </c>
       <c r="E60" t="n">
-        <v>3960.4059282715</v>
+        <v>6575.56979</v>
       </c>
       <c r="F60" t="n">
-        <v>13685.9226810268</v>
+        <v>21985.28344</v>
+      </c>
+      <c r="G60" t="n">
+        <v>19375.9866878563</v>
+      </c>
+      <c r="H60" t="n">
+        <v>32403.8846783632</v>
+      </c>
+      <c r="I60" t="n">
+        <v>877.5807807975</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2615.163861728499</v>
+      </c>
+      <c r="K60" t="n">
+        <v>8299.3607589732</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1779,11 +2689,26 @@
       <c r="F61" t="n">
         <v>30461.1666349107</v>
       </c>
+      <c r="G61" t="n">
+        <v>17814.450734895</v>
+      </c>
+      <c r="H61" t="n">
+        <v>34420.459613906</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1907.07188865819</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4317.348566963001</v>
+      </c>
+      <c r="K61" t="n">
+        <v>8475.883194910701</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1801,55 +2726,100 @@
       <c r="F62" t="n">
         <v>7522.294391</v>
       </c>
+      <c r="G62" t="n">
+        <v>5022.685607</v>
+      </c>
+      <c r="H62" t="n">
+        <v>15940.92436</v>
+      </c>
+      <c r="I62" t="n">
+        <v>734.4770465</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1850.157589</v>
+      </c>
+      <c r="K62" t="n">
+        <v>7522.294391</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>38724.17993</v>
+        <v>18376.66422</v>
       </c>
       <c r="C63" t="n">
-        <v>72571.45970000001</v>
+        <v>39528.26535</v>
       </c>
       <c r="D63" t="n">
-        <v>2978.331036</v>
+        <v>2021.291447</v>
       </c>
       <c r="E63" t="n">
-        <v>7104.320816</v>
+        <v>4288.360818</v>
       </c>
       <c r="F63" t="n">
-        <v>20514.10903</v>
+        <v>12962.08287</v>
+      </c>
+      <c r="G63" t="n">
+        <v>13353.978613</v>
+      </c>
+      <c r="H63" t="n">
+        <v>23587.34099</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1286.8144005</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2438.203229</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5439.788479</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>18376.66422</v>
+        <v>38724.17993</v>
       </c>
       <c r="C64" t="n">
-        <v>39528.26535</v>
+        <v>72571.45970000001</v>
       </c>
       <c r="D64" t="n">
-        <v>2021.291447</v>
+        <v>2978.331036</v>
       </c>
       <c r="E64" t="n">
-        <v>4288.360818</v>
+        <v>7104.320816</v>
       </c>
       <c r="F64" t="n">
-        <v>12962.08287</v>
+        <v>20514.10903</v>
+      </c>
+      <c r="G64" t="n">
+        <v>20347.51571</v>
+      </c>
+      <c r="H64" t="n">
+        <v>33043.19435000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>957.039589</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2815.959998</v>
+      </c>
+      <c r="K64" t="n">
+        <v>7552.026159999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1867,11 +2837,26 @@
       <c r="F65" t="n">
         <v>29361.1880922378</v>
       </c>
+      <c r="G65" t="n">
+        <v>19335.5780080087</v>
+      </c>
+      <c r="H65" t="n">
+        <v>36760.26120048499</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2002.21965577465</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4472.7707154476</v>
+      </c>
+      <c r="K65" t="n">
+        <v>8847.079062237801</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1889,55 +2874,100 @@
       <c r="F66" t="n">
         <v>7231.42480913847</v>
       </c>
+      <c r="G66" t="n">
+        <v>4854.33565534479</v>
+      </c>
+      <c r="H66" t="n">
+        <v>15936.5416499052</v>
+      </c>
+      <c r="I66" t="n">
+        <v>765.177513337735</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2156.32331481394</v>
+      </c>
+      <c r="K66" t="n">
+        <v>7231.42480913847</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>36993.9398165384</v>
+        <v>17734.3468444575</v>
       </c>
       <c r="C67" t="n">
-        <v>70929.4682733995</v>
+        <v>39185.6274145107</v>
       </c>
       <c r="D67" t="n">
-        <v>3308.2327147143</v>
+        <v>2149.58283644135</v>
       </c>
       <c r="E67" t="n">
-        <v>7557.63203235152</v>
+        <v>4621.69370253579</v>
       </c>
       <c r="F67" t="n">
-        <v>19298.7874025092</v>
+        <v>12471.3264731063</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12880.01118911271</v>
+      </c>
+      <c r="H67" t="n">
+        <v>23249.0857646055</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1384.405323103615</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2465.37038772185</v>
+      </c>
+      <c r="K67" t="n">
+        <v>5239.901663967831</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>17734.3468444575</v>
+        <v>36993.9398165384</v>
       </c>
       <c r="C68" t="n">
-        <v>39185.6274145107</v>
+        <v>70929.4682733995</v>
       </c>
       <c r="D68" t="n">
-        <v>2149.58283644135</v>
+        <v>3308.2327147143</v>
       </c>
       <c r="E68" t="n">
-        <v>4621.69370253579</v>
+        <v>7557.63203235152</v>
       </c>
       <c r="F68" t="n">
-        <v>12471.3264731063</v>
+        <v>19298.7874025092</v>
+      </c>
+      <c r="G68" t="n">
+        <v>19259.5929720809</v>
+      </c>
+      <c r="H68" t="n">
+        <v>31743.8408588888</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1158.64987827295</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2935.93832981573</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6827.460929402898</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1955,11 +2985,26 @@
       <c r="F69" t="n">
         <v>28697.4021024613</v>
       </c>
+      <c r="G69" t="n">
+        <v>24458.6554171528</v>
+      </c>
+      <c r="H69" t="n">
+        <v>42650.0618694085</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2124.37745706329</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4573.874554396381</v>
+      </c>
+      <c r="K69" t="n">
+        <v>9398.614699952101</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1977,55 +3022,100 @@
       <c r="F70" t="n">
         <v>6961.21570469037</v>
       </c>
+      <c r="G70" t="n">
+        <v>5298.47385539264</v>
+      </c>
+      <c r="H70" t="n">
+        <v>16301.734516273</v>
+      </c>
+      <c r="I70" t="n">
+        <v>815.053066131956</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2203.44049633139</v>
+      </c>
+      <c r="K70" t="n">
+        <v>6961.21570469037</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>40420.6976900418</v>
+        <v>19638.2550355366</v>
       </c>
       <c r="C71" t="n">
-        <v>76431.6661563974</v>
+        <v>42005.8379735207</v>
       </c>
       <c r="D71" t="n">
-        <v>3479.81823889243</v>
+        <v>2276.02381912382</v>
       </c>
       <c r="E71" t="n">
-        <v>7884.85427215346</v>
+        <v>4812.40077069046</v>
       </c>
       <c r="F71" t="n">
-        <v>20512.7983043714</v>
+        <v>12854.8031006761</v>
+      </c>
+      <c r="G71" t="n">
+        <v>14339.78118014396</v>
+      </c>
+      <c r="H71" t="n">
+        <v>25704.1034572477</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1460.970752991864</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2608.96027435907</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5893.587395985729</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>19638.2550355366</v>
+        <v>40420.6976900418</v>
       </c>
       <c r="C72" t="n">
-        <v>42005.8379735207</v>
+        <v>76431.6661563974</v>
       </c>
       <c r="D72" t="n">
-        <v>2276.02381912382</v>
+        <v>3479.81823889243</v>
       </c>
       <c r="E72" t="n">
-        <v>4812.40077069046</v>
+        <v>7884.85427215346</v>
       </c>
       <c r="F72" t="n">
-        <v>12854.8031006761</v>
+        <v>20512.7983043714</v>
+      </c>
+      <c r="G72" t="n">
+        <v>20782.4426545052</v>
+      </c>
+      <c r="H72" t="n">
+        <v>34425.82818287671</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1203.79441976861</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3072.453501463</v>
+      </c>
+      <c r="K72" t="n">
+        <v>7657.995203695302</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2043,11 +3133,26 @@
       <c r="F73" t="n">
         <v>33064.3456836352</v>
       </c>
+      <c r="G73" t="n">
+        <v>25645.752931319</v>
+      </c>
+      <c r="H73" t="n">
+        <v>47536.26912020659</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2295.88769704833</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4687.54949161224</v>
+      </c>
+      <c r="K73" t="n">
+        <v>12551.5473792638</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2065,55 +3170,100 @@
       <c r="F74" t="n">
         <v>9532.460263454701</v>
       </c>
+      <c r="G74" t="n">
+        <v>5687.1967471914</v>
+      </c>
+      <c r="H74" t="n">
+        <v>19309.6559714555</v>
+      </c>
+      <c r="I74" t="n">
+        <v>815.9561960947</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2157.2226503195</v>
+      </c>
+      <c r="K74" t="n">
+        <v>9532.460263454701</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>43265.695913865</v>
+        <v>20558.5539835119</v>
       </c>
       <c r="C75" t="n">
-        <v>86705.3733674531</v>
+        <v>47994.5332277615</v>
       </c>
       <c r="D75" t="n">
-        <v>3537.5841025276</v>
+        <v>2300.1279215297</v>
       </c>
       <c r="E75" t="n">
-        <v>7961.194283379</v>
+        <v>4788.3888143962</v>
       </c>
       <c r="F75" t="n">
-        <v>27431.8339991129</v>
+        <v>17705.7461205825</v>
+      </c>
+      <c r="G75" t="n">
+        <v>14871.3572363205</v>
+      </c>
+      <c r="H75" t="n">
+        <v>28684.877256306</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1484.171725435</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2631.1661640767</v>
+      </c>
+      <c r="K75" t="n">
+        <v>8173.285857127797</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>20558.5539835119</v>
+        <v>43265.695913865</v>
       </c>
       <c r="C76" t="n">
-        <v>47994.5332277615</v>
+        <v>86705.3733674531</v>
       </c>
       <c r="D76" t="n">
-        <v>2300.1279215297</v>
+        <v>3537.5841025276</v>
       </c>
       <c r="E76" t="n">
-        <v>4788.3888143962</v>
+        <v>7961.194283379</v>
       </c>
       <c r="F76" t="n">
-        <v>17705.7461205825</v>
+        <v>27431.8339991129</v>
+      </c>
+      <c r="G76" t="n">
+        <v>22707.1419303531</v>
+      </c>
+      <c r="H76" t="n">
+        <v>38710.84013969159</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1237.4561809979</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3172.8054689828</v>
+      </c>
+      <c r="K76" t="n">
+        <v>9726.087878530401</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2131,49 +3281,94 @@
       <c r="F77" t="n">
         <v>10767.67</v>
       </c>
+      <c r="G77" t="n">
+        <v>6311.99</v>
+      </c>
+      <c r="H77" t="n">
+        <v>21587.29</v>
+      </c>
+      <c r="I77" t="n">
+        <v>880.47</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2435.57</v>
+      </c>
+      <c r="K77" t="n">
+        <v>10767.67</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>46671.1320359725</v>
+        <v>22348.0629735716</v>
       </c>
       <c r="C78" t="n">
-        <v>92863.4216881285</v>
+        <v>52541.0598613999</v>
       </c>
       <c r="D78" t="n">
-        <v>3841.2527978174</v>
+        <v>2514.5760045566</v>
       </c>
       <c r="E78" t="n">
-        <v>9129.5908377059</v>
+        <v>5523.0926627966</v>
       </c>
       <c r="F78" t="n">
-        <v>28328.9719450687</v>
+        <v>19298.2474848857</v>
+      </c>
+      <c r="G78" t="n">
+        <v>16036.0729735716</v>
+      </c>
+      <c r="H78" t="n">
+        <v>30953.7698613999</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1634.1060045566</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3087.5226627966</v>
+      </c>
+      <c r="K78" t="n">
+        <v>8530.577484885698</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>22348.0629735716</v>
+        <v>46671.1320359725</v>
       </c>
       <c r="C79" t="n">
-        <v>52541.0598613999</v>
+        <v>92863.4216881285</v>
       </c>
       <c r="D79" t="n">
-        <v>2514.5760045566</v>
+        <v>3841.2527978174</v>
       </c>
       <c r="E79" t="n">
-        <v>5523.0926627966</v>
+        <v>9129.5908377059</v>
       </c>
       <c r="F79" t="n">
-        <v>19298.2474848857</v>
+        <v>28328.9719450687</v>
+      </c>
+      <c r="G79" t="n">
+        <v>24323.0690624009</v>
+      </c>
+      <c r="H79" t="n">
+        <v>40322.36182672859</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1326.6767932608</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3606.4981749093</v>
+      </c>
+      <c r="K79" t="n">
+        <v>9030.724460183003</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/农业/农林牧渔业总产值.xlsx
+++ b/data_quarter/zb/农业/农林牧渔业总产值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,6 @@
           <t>牧业总产值_累计值</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>农业总产值</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>农林牧渔业总产值</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>林业总产值</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>渔业总产值</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>牧业总产值</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -506,94 +481,49 @@
       <c r="F2" t="n">
         <v>1976</v>
       </c>
-      <c r="G2" t="n">
-        <v>1056.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3535.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>107.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1976</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年B</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4152.9</v>
+        <v>8976.09</v>
       </c>
       <c r="C3" t="n">
-        <v>9261.700000000001</v>
+        <v>17072.65</v>
       </c>
       <c r="D3" t="n">
-        <v>380.1</v>
+        <v>565.17</v>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
+        <v>1634.51</v>
       </c>
       <c r="F3" t="n">
-        <v>3728.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3096.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5726.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>604.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1752.7</v>
+        <v>5892.89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年C</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8976.09</v>
+        <v>4152.9</v>
       </c>
       <c r="C4" t="n">
-        <v>17072.65</v>
+        <v>9261.700000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>565.17</v>
+        <v>380.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1634.51</v>
+        <v>1000</v>
       </c>
       <c r="F4" t="n">
-        <v>5892.89</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4823.190000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7810.950000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>185.0699999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>634.51</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2164.190000000001</v>
+        <v>3728.7</v>
       </c>
     </row>
     <row r="5">
@@ -617,21 +547,6 @@
       <c r="F5" t="n">
         <v>8454.6</v>
       </c>
-      <c r="G5" t="n">
-        <v>5955.41</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10318.15</v>
-      </c>
-      <c r="I5" t="n">
-        <v>468.33</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1336.59</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2561.71</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -654,94 +569,49 @@
       <c r="F6" t="n">
         <v>2212</v>
       </c>
-      <c r="G6" t="n">
-        <v>1087.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3893.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>411.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2212</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2003年B</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4067.9</v>
+        <v>9081.799999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>9664.76</v>
+        <v>17914.71</v>
       </c>
       <c r="D7" t="n">
-        <v>469.5</v>
+        <v>723.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1061.8</v>
+        <v>1708.5</v>
       </c>
       <c r="F7" t="n">
-        <v>4065.6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2980.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5771.56</v>
-      </c>
-      <c r="I7" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>649.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1853.6</v>
+        <v>6401.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2003年C</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9081.799999999999</v>
+        <v>4067.9</v>
       </c>
       <c r="C8" t="n">
-        <v>17914.71</v>
+        <v>9664.76</v>
       </c>
       <c r="D8" t="n">
-        <v>723.2</v>
+        <v>469.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1708.5</v>
+        <v>1061.8</v>
       </c>
       <c r="F8" t="n">
-        <v>6401.1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5013.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8249.949999999999</v>
-      </c>
-      <c r="I8" t="n">
-        <v>253.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>646.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2335.5</v>
+        <v>4065.6</v>
       </c>
     </row>
     <row r="9">
@@ -765,21 +635,6 @@
       <c r="F9" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="G9" t="n">
-        <v>5788.300000000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11777.09</v>
-      </c>
-      <c r="I9" t="n">
-        <v>516.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1429.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3137.699999999999</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -802,94 +657,49 @@
       <c r="F10" t="n">
         <v>2700.26091711265</v>
       </c>
-      <c r="G10" t="n">
-        <v>1216.36007674952</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4834.23498274512</v>
-      </c>
-      <c r="I10" t="n">
-        <v>195.316515772645</v>
-      </c>
-      <c r="J10" t="n">
-        <v>530.79026157813</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2700.26091711265</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5002.6</v>
+        <v>11114.4316237679</v>
       </c>
       <c r="C11" t="n">
-        <v>12295.6</v>
+        <v>22742.7990593764</v>
       </c>
       <c r="D11" t="n">
-        <v>514.4</v>
+        <v>769.373386393739</v>
       </c>
       <c r="E11" t="n">
-        <v>1255.6</v>
+        <v>1992.24376857048</v>
       </c>
       <c r="F11" t="n">
-        <v>5096.1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3786.23992325048</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7461.365017254881</v>
-      </c>
-      <c r="I11" t="n">
-        <v>319.083484227355</v>
-      </c>
-      <c r="J11" t="n">
-        <v>724.80973842187</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2395.83908288735</v>
+        <v>8164.12825021329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11114.4316237679</v>
+        <v>5002.6</v>
       </c>
       <c r="C12" t="n">
-        <v>22742.7990593764</v>
+        <v>12295.6</v>
       </c>
       <c r="D12" t="n">
-        <v>769.373386393739</v>
+        <v>514.4</v>
       </c>
       <c r="E12" t="n">
-        <v>1992.24376857048</v>
+        <v>1255.6</v>
       </c>
       <c r="F12" t="n">
-        <v>8164.12825021329</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6111.831623767899</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10447.1990593764</v>
-      </c>
-      <c r="I12" t="n">
-        <v>254.973386393739</v>
-      </c>
-      <c r="J12" t="n">
-        <v>736.64376857048</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3068.02825021329</v>
+        <v>5096.1</v>
       </c>
     </row>
     <row r="13">
@@ -913,21 +723,6 @@
       <c r="F13" t="n">
         <v>12173.8</v>
       </c>
-      <c r="G13" t="n">
-        <v>7023.968376232102</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13496.2009406236</v>
-      </c>
-      <c r="I13" t="n">
-        <v>557.7266136062609</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1613.35623142952</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4009.671749786709</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -950,94 +745,49 @@
       <c r="F14" t="n">
         <v>3183.4872712931</v>
       </c>
-      <c r="G14" t="n">
-        <v>1350.10447012759</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5556.42276055046</v>
-      </c>
-      <c r="I14" t="n">
-        <v>208.503404721417</v>
-      </c>
-      <c r="J14" t="n">
-        <v>604.706370082964</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3183.4872712931</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5439.12426172611</v>
+        <v>12215.5091126878</v>
       </c>
       <c r="C15" t="n">
-        <v>13647.085586849</v>
+        <v>25118.3042353349</v>
       </c>
       <c r="D15" t="n">
-        <v>548.724698507636</v>
+        <v>824.873428798527</v>
       </c>
       <c r="E15" t="n">
-        <v>1382.87739871175</v>
+        <v>2221.68661437154</v>
       </c>
       <c r="F15" t="n">
-        <v>5808.80162916247</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4089.01979159852</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8090.66282629854</v>
-      </c>
-      <c r="I15" t="n">
-        <v>340.221293786219</v>
-      </c>
-      <c r="J15" t="n">
-        <v>778.171028628786</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2625.31435786937</v>
+        <v>9073.11470676277</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12215.5091126878</v>
+        <v>5439.12426172611</v>
       </c>
       <c r="C16" t="n">
-        <v>25118.3042353349</v>
+        <v>13647.085586849</v>
       </c>
       <c r="D16" t="n">
-        <v>824.873428798527</v>
+        <v>548.724698507636</v>
       </c>
       <c r="E16" t="n">
-        <v>2221.68661437154</v>
+        <v>1382.87739871175</v>
       </c>
       <c r="F16" t="n">
-        <v>9073.11470676277</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6776.38485096169</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11471.2186484859</v>
-      </c>
-      <c r="I16" t="n">
-        <v>276.148730290891</v>
-      </c>
-      <c r="J16" t="n">
-        <v>838.8092156597902</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3264.3130776003</v>
+        <v>5808.80162916247</v>
       </c>
     </row>
     <row r="17">
@@ -1061,21 +811,6 @@
       <c r="F17" t="n">
         <v>13310.8</v>
       </c>
-      <c r="G17" t="n">
-        <v>7397.890887312202</v>
-      </c>
-      <c r="H17" t="n">
-        <v>14332.5957646651</v>
-      </c>
-      <c r="I17" t="n">
-        <v>600.626571201473</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1794.41338562846</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4237.685293237229</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1098,94 +833,49 @@
       <c r="F18" t="n">
         <v>3049.1</v>
       </c>
-      <c r="G18" t="n">
-        <v>1653.5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5810.8</v>
-      </c>
-      <c r="I18" t="n">
-        <v>223.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>658.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3049.1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6300.8</v>
+        <v>13594.4</v>
       </c>
       <c r="C19" t="n">
-        <v>14564</v>
+        <v>26743</v>
       </c>
       <c r="D19" t="n">
-        <v>594</v>
+        <v>936.2</v>
       </c>
       <c r="E19" t="n">
-        <v>1536.8</v>
+        <v>2460.2</v>
       </c>
       <c r="F19" t="n">
-        <v>5623.6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4647.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8753.200000000001</v>
-      </c>
-      <c r="I19" t="n">
-        <v>370.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>878.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2574.5</v>
+        <v>8901.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13594.4</v>
+        <v>6300.8</v>
       </c>
       <c r="C20" t="n">
-        <v>26743</v>
+        <v>14564</v>
       </c>
       <c r="D20" t="n">
-        <v>936.2</v>
+        <v>594</v>
       </c>
       <c r="E20" t="n">
-        <v>2460.2</v>
+        <v>1536.8</v>
       </c>
       <c r="F20" t="n">
-        <v>8901.1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7293.599999999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>12179</v>
-      </c>
-      <c r="I20" t="n">
-        <v>342.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>923.3999999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3277.5</v>
+        <v>5623.6</v>
       </c>
     </row>
     <row r="21">
@@ -1209,21 +899,6 @@
       <c r="F21" t="n">
         <v>12083.86</v>
       </c>
-      <c r="G21" t="n">
-        <v>7927.879999999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>14067.83</v>
-      </c>
-      <c r="I21" t="n">
-        <v>674.6109999999999</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1510.325</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3182.76</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1246,94 +921,49 @@
       <c r="F22" t="n">
         <v>3388</v>
       </c>
-      <c r="G22" t="n">
-        <v>1813</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6474</v>
-      </c>
-      <c r="I22" t="n">
-        <v>260</v>
-      </c>
-      <c r="J22" t="n">
-        <v>694</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3388</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6942</v>
+        <v>15229.3398974551</v>
       </c>
       <c r="C23" t="n">
-        <v>16381</v>
+        <v>31496.0130135029</v>
       </c>
       <c r="D23" t="n">
-        <v>659</v>
+        <v>1042.58925624017</v>
       </c>
       <c r="E23" t="n">
-        <v>1590</v>
+        <v>2701.61062918999</v>
       </c>
       <c r="F23" t="n">
-        <v>6493</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5129</v>
-      </c>
-      <c r="H23" t="n">
-        <v>9907</v>
-      </c>
-      <c r="I23" t="n">
-        <v>399</v>
-      </c>
-      <c r="J23" t="n">
-        <v>896</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3105</v>
+        <v>11576.350184826</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15229.3398974551</v>
+        <v>6942</v>
       </c>
       <c r="C24" t="n">
-        <v>31496.0130135029</v>
+        <v>16381</v>
       </c>
       <c r="D24" t="n">
-        <v>1042.58925624017</v>
+        <v>659</v>
       </c>
       <c r="E24" t="n">
-        <v>2701.61062918999</v>
+        <v>1590</v>
       </c>
       <c r="F24" t="n">
-        <v>11576.350184826</v>
-      </c>
-      <c r="G24" t="n">
-        <v>8287.3398974551</v>
-      </c>
-      <c r="H24" t="n">
-        <v>15115.0130135029</v>
-      </c>
-      <c r="I24" t="n">
-        <v>383.58925624017</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1111.61062918999</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5083.350184826</v>
+        <v>6493</v>
       </c>
     </row>
     <row r="25">
@@ -1357,21 +987,6 @@
       <c r="F25" t="n">
         <v>16068.6203025761</v>
       </c>
-      <c r="G25" t="n">
-        <v>9215.339725635398</v>
-      </c>
-      <c r="H25" t="n">
-        <v>17155.7532472935</v>
-      </c>
-      <c r="I25" t="n">
-        <v>847.3426949914399</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1726.3171576988</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4492.2701177501</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1394,94 +1009,49 @@
       <c r="F26" t="n">
         <v>4885</v>
       </c>
-      <c r="G26" t="n">
-        <v>2187</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8548</v>
-      </c>
-      <c r="I26" t="n">
-        <v>299</v>
-      </c>
-      <c r="J26" t="n">
-        <v>816</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4885</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8192</v>
+        <v>17883.6479329451</v>
       </c>
       <c r="C27" t="n">
-        <v>19613</v>
+        <v>37727.8382551342</v>
       </c>
       <c r="D27" t="n">
-        <v>764</v>
+        <v>1228.78604622061</v>
       </c>
       <c r="E27" t="n">
-        <v>1866</v>
+        <v>3036.5240848285</v>
       </c>
       <c r="F27" t="n">
-        <v>9273</v>
-      </c>
-      <c r="G27" t="n">
-        <v>6005</v>
-      </c>
-      <c r="H27" t="n">
-        <v>11065</v>
-      </c>
-      <c r="I27" t="n">
-        <v>465</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1050</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4388</v>
+        <v>14233.2962391343</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17883.6479329451</v>
+        <v>8192</v>
       </c>
       <c r="C28" t="n">
-        <v>37727.8382551342</v>
+        <v>19613</v>
       </c>
       <c r="D28" t="n">
-        <v>1228.78604622061</v>
+        <v>764</v>
       </c>
       <c r="E28" t="n">
-        <v>3036.5240848285</v>
+        <v>1866</v>
       </c>
       <c r="F28" t="n">
-        <v>14233.2962391343</v>
-      </c>
-      <c r="G28" t="n">
-        <v>9691.647932945099</v>
-      </c>
-      <c r="H28" t="n">
-        <v>18114.8382551342</v>
-      </c>
-      <c r="I28" t="n">
-        <v>464.7860462206099</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1170.5240848285</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4960.296239134301</v>
+        <v>9273</v>
       </c>
     </row>
     <row r="29">
@@ -1505,21 +1075,6 @@
       <c r="F29" t="n">
         <v>20354.1954318075</v>
       </c>
-      <c r="G29" t="n">
-        <v>9796.290235405999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>19692.9275038229</v>
-      </c>
-      <c r="I29" t="n">
-        <v>951.52012238526</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2101.00643434508</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6120.8991926732</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1542,94 +1097,49 @@
       <c r="F30" t="n">
         <v>4696.63357598848</v>
       </c>
-      <c r="G30" t="n">
-        <v>2270.95458158578</v>
-      </c>
-      <c r="H30" t="n">
-        <v>8509.106849146659</v>
-      </c>
-      <c r="I30" t="n">
-        <v>316.338686735174</v>
-      </c>
-      <c r="J30" t="n">
-        <v>854.208445171168</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4696.63357598848</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8914.626167</v>
+        <v>19431.998183</v>
       </c>
       <c r="C31" t="n">
-        <v>21046.475504</v>
+        <v>38716.62794</v>
       </c>
       <c r="D31" t="n">
-        <v>817.09813</v>
+        <v>1307.467299</v>
       </c>
       <c r="E31" t="n">
-        <v>1941.819145</v>
+        <v>3146.233849</v>
       </c>
       <c r="F31" t="n">
-        <v>8529.847216</v>
-      </c>
-      <c r="G31" t="n">
-        <v>6643.67158541422</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12537.36865485334</v>
-      </c>
-      <c r="I31" t="n">
-        <v>500.759443264826</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1087.610699828832</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3833.213640011521</v>
+        <v>13377.764212</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19431.998183</v>
+        <v>8914.626167</v>
       </c>
       <c r="C32" t="n">
-        <v>38716.62794</v>
+        <v>21046.475504</v>
       </c>
       <c r="D32" t="n">
-        <v>1307.467299</v>
+        <v>817.09813</v>
       </c>
       <c r="E32" t="n">
-        <v>3146.233849</v>
+        <v>1941.819145</v>
       </c>
       <c r="F32" t="n">
-        <v>13377.764212</v>
-      </c>
-      <c r="G32" t="n">
-        <v>10517.372016</v>
-      </c>
-      <c r="H32" t="n">
-        <v>17670.152436</v>
-      </c>
-      <c r="I32" t="n">
-        <v>490.3691689999999</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1204.414704</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4847.916996</v>
+        <v>8529.847216</v>
       </c>
     </row>
     <row r="33">
@@ -1653,21 +1163,6 @@
       <c r="F33" t="n">
         <v>18908.4368521907</v>
       </c>
-      <c r="G33" t="n">
-        <v>10504.9004538487</v>
-      </c>
-      <c r="H33" t="n">
-        <v>20416.1724706209</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1069.10060416564</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2377.806303950199</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5530.672640190702</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1690,94 +1185,49 @@
       <c r="F34" t="n">
         <v>4699.320409</v>
       </c>
-      <c r="G34" t="n">
-        <v>2722.449755</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9171.288495999999</v>
-      </c>
-      <c r="I34" t="n">
-        <v>375.14219</v>
-      </c>
-      <c r="J34" t="n">
-        <v>956.846596</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4699.320409</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10578.763625</v>
+        <v>23483.337471</v>
       </c>
       <c r="C35" t="n">
-        <v>23321.160386</v>
+        <v>43916.590786</v>
       </c>
       <c r="D35" t="n">
-        <v>979.678365</v>
+        <v>1588.715127</v>
       </c>
       <c r="E35" t="n">
-        <v>2189.194365</v>
+        <v>3566.402459</v>
       </c>
       <c r="F35" t="n">
-        <v>8645.676518</v>
-      </c>
-      <c r="G35" t="n">
-        <v>7856.31387</v>
-      </c>
-      <c r="H35" t="n">
-        <v>14149.87189</v>
-      </c>
-      <c r="I35" t="n">
-        <v>604.536175</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1232.347769</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3946.356109</v>
+        <v>13669.723902</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>23483.337471</v>
+        <v>10578.763625</v>
       </c>
       <c r="C36" t="n">
-        <v>43916.590786</v>
+        <v>23321.160386</v>
       </c>
       <c r="D36" t="n">
-        <v>1588.715127</v>
+        <v>979.678365</v>
       </c>
       <c r="E36" t="n">
-        <v>3566.402459</v>
+        <v>2189.194365</v>
       </c>
       <c r="F36" t="n">
-        <v>13669.723902</v>
-      </c>
-      <c r="G36" t="n">
-        <v>12904.573846</v>
-      </c>
-      <c r="H36" t="n">
-        <v>20595.4304</v>
-      </c>
-      <c r="I36" t="n">
-        <v>609.036762</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1377.208094</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5024.047384</v>
+        <v>8645.676518</v>
       </c>
     </row>
     <row r="37">
@@ -1801,21 +1251,6 @@
       <c r="F37" t="n">
         <v>20461.0770138634</v>
       </c>
-      <c r="G37" t="n">
-        <v>12425.728713359</v>
-      </c>
-      <c r="H37" t="n">
-        <v>23846.5434882221</v>
-      </c>
-      <c r="I37" t="n">
-        <v>986.3190176145199</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2696.96809871473</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6791.3531118634</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1838,94 +1273,49 @@
       <c r="F38" t="n">
         <v>5541.864005</v>
       </c>
-      <c r="G38" t="n">
-        <v>3120.061484</v>
-      </c>
-      <c r="H38" t="n">
-        <v>10673.242695</v>
-      </c>
-      <c r="I38" t="n">
-        <v>446.97242</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1085.032245</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5541.864005</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11931.146955</v>
+        <v>27109.8</v>
       </c>
       <c r="C39" t="n">
-        <v>27384.484768</v>
+        <v>52132.1</v>
       </c>
       <c r="D39" t="n">
-        <v>1216.896455</v>
+        <v>1833.5</v>
       </c>
       <c r="E39" t="n">
-        <v>2525.147333</v>
+        <v>4261.4</v>
       </c>
       <c r="F39" t="n">
-        <v>10662.700044</v>
-      </c>
-      <c r="G39" t="n">
-        <v>8811.085471</v>
-      </c>
-      <c r="H39" t="n">
-        <v>16711.242073</v>
-      </c>
-      <c r="I39" t="n">
-        <v>769.924035</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1440.115088</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5120.836038999999</v>
+        <v>17117.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27109.8</v>
+        <v>11931.146955</v>
       </c>
       <c r="C40" t="n">
-        <v>52132.1</v>
+        <v>27384.484768</v>
       </c>
       <c r="D40" t="n">
-        <v>1833.5</v>
+        <v>1216.896455</v>
       </c>
       <c r="E40" t="n">
-        <v>4261.4</v>
+        <v>2525.147333</v>
       </c>
       <c r="F40" t="n">
-        <v>17117.1</v>
-      </c>
-      <c r="G40" t="n">
-        <v>15178.653045</v>
-      </c>
-      <c r="H40" t="n">
-        <v>24747.615232</v>
-      </c>
-      <c r="I40" t="n">
-        <v>616.6035449999999</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1736.252667</v>
-      </c>
-      <c r="K40" t="n">
-        <v>6454.399955999999</v>
+        <v>10662.700044</v>
       </c>
     </row>
     <row r="41">
@@ -1949,21 +1339,6 @@
       <c r="F41" t="n">
         <v>25194.1631377629</v>
       </c>
-      <c r="G41" t="n">
-        <v>13229.8228439432</v>
-      </c>
-      <c r="H41" t="n">
-        <v>26704.8774171036</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1258.9388015974</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3075.9725208208</v>
-      </c>
-      <c r="K41" t="n">
-        <v>8077.0631377629</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1986,94 +1361,49 @@
       <c r="F42" t="n">
         <v>6485.2</v>
       </c>
-      <c r="G42" t="n">
-        <v>3567.5</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12329.4</v>
-      </c>
-      <c r="I42" t="n">
-        <v>517.6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1249.7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6485.2</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13366.6</v>
+        <v>29782</v>
       </c>
       <c r="C43" t="n">
-        <v>30458.9</v>
+        <v>56838</v>
       </c>
       <c r="D43" t="n">
-        <v>1404.9</v>
+        <v>2018</v>
       </c>
       <c r="E43" t="n">
-        <v>2917.7</v>
+        <v>4857</v>
       </c>
       <c r="F43" t="n">
-        <v>11620.9</v>
-      </c>
-      <c r="G43" t="n">
-        <v>9799.1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>18129.5</v>
-      </c>
-      <c r="I43" t="n">
-        <v>887.3000000000001</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1668</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5135.7</v>
+        <v>18149</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29782</v>
+        <v>13366.6</v>
       </c>
       <c r="C44" t="n">
-        <v>56838</v>
+        <v>30458.9</v>
       </c>
       <c r="D44" t="n">
-        <v>2018</v>
+        <v>1404.9</v>
       </c>
       <c r="E44" t="n">
-        <v>4857</v>
+        <v>2917.7</v>
       </c>
       <c r="F44" t="n">
-        <v>18149</v>
-      </c>
-      <c r="G44" t="n">
-        <v>16415.4</v>
-      </c>
-      <c r="H44" t="n">
-        <v>26379.1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>613.0999999999999</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1939.3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6528.1</v>
+        <v>11620.9</v>
       </c>
     </row>
     <row r="45">
@@ -2097,21 +1427,6 @@
       <c r="F45" t="n">
         <v>26491.2089136203</v>
       </c>
-      <c r="G45" t="n">
-        <v>15063.7211624986</v>
-      </c>
-      <c r="H45" t="n">
-        <v>29504.15223565089</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1388.97085950325</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3546.91482110815</v>
-      </c>
-      <c r="K45" t="n">
-        <v>8342.208913620299</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2134,94 +1449,49 @@
       <c r="F46" t="n">
         <v>6838.4</v>
       </c>
-      <c r="G46" t="n">
-        <v>3862.2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>13206.4</v>
-      </c>
-      <c r="I46" t="n">
-        <v>564.1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1390.2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>6838.4</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>14666</v>
+        <v>32332.8</v>
       </c>
       <c r="C47" t="n">
-        <v>32364.7</v>
+        <v>60984.3</v>
       </c>
       <c r="D47" t="n">
-        <v>1517.3</v>
+        <v>2216.4</v>
       </c>
       <c r="E47" t="n">
-        <v>3220.6</v>
+        <v>5362.6</v>
       </c>
       <c r="F47" t="n">
-        <v>11694.3</v>
-      </c>
-      <c r="G47" t="n">
-        <v>10803.8</v>
-      </c>
-      <c r="H47" t="n">
-        <v>19158.3</v>
-      </c>
-      <c r="I47" t="n">
-        <v>953.1999999999999</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1830.4</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4855.9</v>
+        <v>18860.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>32332.8</v>
+        <v>14666</v>
       </c>
       <c r="C48" t="n">
-        <v>60984.3</v>
+        <v>32364.7</v>
       </c>
       <c r="D48" t="n">
-        <v>2216.4</v>
+        <v>1517.3</v>
       </c>
       <c r="E48" t="n">
-        <v>5362.6</v>
+        <v>3220.6</v>
       </c>
       <c r="F48" t="n">
-        <v>18860.1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>17666.8</v>
-      </c>
-      <c r="H48" t="n">
-        <v>28619.6</v>
-      </c>
-      <c r="I48" t="n">
-        <v>699.1000000000001</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2142</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7165.799999999999</v>
+        <v>11694.3</v>
       </c>
     </row>
     <row r="49">
@@ -2245,21 +1515,6 @@
       <c r="F49" t="n">
         <v>27572.3688554741</v>
       </c>
-      <c r="G49" t="n">
-        <v>16611.1377789756</v>
-      </c>
-      <c r="H49" t="n">
-        <v>32189.39985675309</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1631.0385215052</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3891.878650547949</v>
-      </c>
-      <c r="K49" t="n">
-        <v>8712.2688554741</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2282,94 +1537,49 @@
       <c r="F50" t="n">
         <v>6709.4</v>
       </c>
-      <c r="G50" t="n">
-        <v>4292.6</v>
-      </c>
-      <c r="H50" t="n">
-        <v>13730</v>
-      </c>
-      <c r="I50" t="n">
-        <v>634.7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1484.9</v>
-      </c>
-      <c r="K50" t="n">
-        <v>6709.4</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>16000.4</v>
+        <v>34799.1</v>
       </c>
       <c r="C51" t="n">
-        <v>34300.4</v>
+        <v>64934.4</v>
       </c>
       <c r="D51" t="n">
-        <v>1688.7</v>
+        <v>2527.1</v>
       </c>
       <c r="E51" t="n">
-        <v>3455.5</v>
+        <v>5773</v>
       </c>
       <c r="F51" t="n">
-        <v>11766.8</v>
-      </c>
-      <c r="G51" t="n">
-        <v>11707.8</v>
-      </c>
-      <c r="H51" t="n">
-        <v>20570.4</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1054</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1970.6</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5057.4</v>
+        <v>19395.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>34799.1</v>
+        <v>16000.4</v>
       </c>
       <c r="C52" t="n">
-        <v>64934.4</v>
+        <v>34300.4</v>
       </c>
       <c r="D52" t="n">
-        <v>2527.1</v>
+        <v>1688.7</v>
       </c>
       <c r="E52" t="n">
-        <v>5773</v>
+        <v>3455.5</v>
       </c>
       <c r="F52" t="n">
-        <v>19395.6</v>
-      </c>
-      <c r="G52" t="n">
-        <v>18798.7</v>
-      </c>
-      <c r="H52" t="n">
-        <v>30634</v>
-      </c>
-      <c r="I52" t="n">
-        <v>838.3999999999999</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2317.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>7628.799999999999</v>
+        <v>11766.8</v>
       </c>
     </row>
     <row r="53">
@@ -2393,21 +1603,6 @@
       <c r="F53" t="n">
         <v>27963.3867736564</v>
       </c>
-      <c r="G53" t="n">
-        <v>17052.0221601811</v>
-      </c>
-      <c r="H53" t="n">
-        <v>32888.1134327064</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1662.88172007347</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4104.53696058354</v>
-      </c>
-      <c r="K53" t="n">
-        <v>8567.7867736564</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2430,94 +1625,49 @@
       <c r="F54" t="n">
         <v>6715.9</v>
       </c>
-      <c r="G54" t="n">
-        <v>4614.7</v>
-      </c>
-      <c r="H54" t="n">
-        <v>14221.6</v>
-      </c>
-      <c r="I54" t="n">
-        <v>644.6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1586.4</v>
-      </c>
-      <c r="K54" t="n">
-        <v>6715.9</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>17419.3</v>
+        <v>36382.3</v>
       </c>
       <c r="C55" t="n">
-        <v>36293.9</v>
+        <v>67892.2</v>
       </c>
       <c r="D55" t="n">
-        <v>1758.7</v>
+        <v>2630.6</v>
       </c>
       <c r="E55" t="n">
-        <v>3668.7</v>
+        <v>6111.8</v>
       </c>
       <c r="F55" t="n">
-        <v>11934.1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>12804.6</v>
-      </c>
-      <c r="H55" t="n">
-        <v>22072.3</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1114.1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2082.3</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5218.200000000001</v>
+        <v>20130.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>36382.3</v>
+        <v>17419.3</v>
       </c>
       <c r="C56" t="n">
-        <v>67892.2</v>
+        <v>36293.9</v>
       </c>
       <c r="D56" t="n">
-        <v>2630.6</v>
+        <v>1758.7</v>
       </c>
       <c r="E56" t="n">
-        <v>6111.8</v>
+        <v>3668.7</v>
       </c>
       <c r="F56" t="n">
-        <v>20130.5</v>
-      </c>
-      <c r="G56" t="n">
-        <v>18963</v>
-      </c>
-      <c r="H56" t="n">
-        <v>31598.3</v>
-      </c>
-      <c r="I56" t="n">
-        <v>871.8999999999999</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2443.1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>8196.4</v>
+        <v>11934.1</v>
       </c>
     </row>
     <row r="57">
@@ -2541,21 +1691,6 @@
       <c r="F57" t="n">
         <v>28649.320296726</v>
       </c>
-      <c r="G57" t="n">
-        <v>17823.0353679747</v>
-      </c>
-      <c r="H57" t="n">
-        <v>34001.32499313301</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1727.84666386536</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4227.286928111101</v>
-      </c>
-      <c r="K57" t="n">
-        <v>8518.820296726</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2578,94 +1713,49 @@
       <c r="F58" t="n">
         <v>7668.85379144884</v>
       </c>
-      <c r="G58" t="n">
-        <v>5292.14019162009</v>
-      </c>
-      <c r="H58" t="n">
-        <v>16119.2955498729</v>
-      </c>
-      <c r="I58" t="n">
-        <v>695.854550283716</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1731.17863432581</v>
-      </c>
-      <c r="K58" t="n">
-        <v>7668.85379144884</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>18469.4532421437</v>
+        <v>37845.43993</v>
       </c>
       <c r="C59" t="n">
-        <v>39654.3841816368</v>
+        <v>72058.26886</v>
       </c>
       <c r="D59" t="n">
-        <v>1851.2449962025</v>
+        <v>2728.825777</v>
       </c>
       <c r="E59" t="n">
-        <v>3960.4059282715</v>
+        <v>6575.56979</v>
       </c>
       <c r="F59" t="n">
-        <v>13685.9226810268</v>
-      </c>
-      <c r="G59" t="n">
-        <v>13177.31305052361</v>
-      </c>
-      <c r="H59" t="n">
-        <v>23535.0886317639</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1155.390445918784</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2229.22729394569</v>
-      </c>
-      <c r="K59" t="n">
-        <v>6017.068889577959</v>
+        <v>21985.28344</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>37845.43993</v>
+        <v>18469.4532421437</v>
       </c>
       <c r="C60" t="n">
-        <v>72058.26886</v>
+        <v>39654.3841816368</v>
       </c>
       <c r="D60" t="n">
-        <v>2728.825777</v>
+        <v>1851.2449962025</v>
       </c>
       <c r="E60" t="n">
-        <v>6575.56979</v>
+        <v>3960.4059282715</v>
       </c>
       <c r="F60" t="n">
-        <v>21985.28344</v>
-      </c>
-      <c r="G60" t="n">
-        <v>19375.9866878563</v>
-      </c>
-      <c r="H60" t="n">
-        <v>32403.8846783632</v>
-      </c>
-      <c r="I60" t="n">
-        <v>877.5807807975</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2615.163861728499</v>
-      </c>
-      <c r="K60" t="n">
-        <v>8299.3607589732</v>
+        <v>13685.9226810268</v>
       </c>
     </row>
     <row r="61">
@@ -2689,21 +1779,6 @@
       <c r="F61" t="n">
         <v>30461.1666349107</v>
       </c>
-      <c r="G61" t="n">
-        <v>17814.450734895</v>
-      </c>
-      <c r="H61" t="n">
-        <v>34420.459613906</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1907.07188865819</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4317.348566963001</v>
-      </c>
-      <c r="K61" t="n">
-        <v>8475.883194910701</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2726,94 +1801,49 @@
       <c r="F62" t="n">
         <v>7522.294391</v>
       </c>
-      <c r="G62" t="n">
-        <v>5022.685607</v>
-      </c>
-      <c r="H62" t="n">
-        <v>15940.92436</v>
-      </c>
-      <c r="I62" t="n">
-        <v>734.4770465</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1850.157589</v>
-      </c>
-      <c r="K62" t="n">
-        <v>7522.294391</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>18376.66422</v>
+        <v>38724.17993</v>
       </c>
       <c r="C63" t="n">
-        <v>39528.26535</v>
+        <v>72571.45970000001</v>
       </c>
       <c r="D63" t="n">
-        <v>2021.291447</v>
+        <v>2978.331036</v>
       </c>
       <c r="E63" t="n">
-        <v>4288.360818</v>
+        <v>7104.320816</v>
       </c>
       <c r="F63" t="n">
-        <v>12962.08287</v>
-      </c>
-      <c r="G63" t="n">
-        <v>13353.978613</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23587.34099</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1286.8144005</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2438.203229</v>
-      </c>
-      <c r="K63" t="n">
-        <v>5439.788479</v>
+        <v>20514.10903</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>38724.17993</v>
+        <v>18376.66422</v>
       </c>
       <c r="C64" t="n">
-        <v>72571.45970000001</v>
+        <v>39528.26535</v>
       </c>
       <c r="D64" t="n">
-        <v>2978.331036</v>
+        <v>2021.291447</v>
       </c>
       <c r="E64" t="n">
-        <v>7104.320816</v>
+        <v>4288.360818</v>
       </c>
       <c r="F64" t="n">
-        <v>20514.10903</v>
-      </c>
-      <c r="G64" t="n">
-        <v>20347.51571</v>
-      </c>
-      <c r="H64" t="n">
-        <v>33043.19435000001</v>
-      </c>
-      <c r="I64" t="n">
-        <v>957.039589</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2815.959998</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7552.026159999999</v>
+        <v>12962.08287</v>
       </c>
     </row>
     <row r="65">
@@ -2837,21 +1867,6 @@
       <c r="F65" t="n">
         <v>29361.1880922378</v>
       </c>
-      <c r="G65" t="n">
-        <v>19335.5780080087</v>
-      </c>
-      <c r="H65" t="n">
-        <v>36760.26120048499</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2002.21965577465</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4472.7707154476</v>
-      </c>
-      <c r="K65" t="n">
-        <v>8847.079062237801</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2874,94 +1889,49 @@
       <c r="F66" t="n">
         <v>7231.42480913847</v>
       </c>
-      <c r="G66" t="n">
-        <v>4854.33565534479</v>
-      </c>
-      <c r="H66" t="n">
-        <v>15936.5416499052</v>
-      </c>
-      <c r="I66" t="n">
-        <v>765.177513337735</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2156.32331481394</v>
-      </c>
-      <c r="K66" t="n">
-        <v>7231.42480913847</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>17734.3468444575</v>
+        <v>36993.9398165384</v>
       </c>
       <c r="C67" t="n">
-        <v>39185.6274145107</v>
+        <v>70929.4682733995</v>
       </c>
       <c r="D67" t="n">
-        <v>2149.58283644135</v>
+        <v>3308.2327147143</v>
       </c>
       <c r="E67" t="n">
-        <v>4621.69370253579</v>
+        <v>7557.63203235152</v>
       </c>
       <c r="F67" t="n">
-        <v>12471.3264731063</v>
-      </c>
-      <c r="G67" t="n">
-        <v>12880.01118911271</v>
-      </c>
-      <c r="H67" t="n">
-        <v>23249.0857646055</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1384.405323103615</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2465.37038772185</v>
-      </c>
-      <c r="K67" t="n">
-        <v>5239.901663967831</v>
+        <v>19298.7874025092</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>36993.9398165384</v>
+        <v>17734.3468444575</v>
       </c>
       <c r="C68" t="n">
-        <v>70929.4682733995</v>
+        <v>39185.6274145107</v>
       </c>
       <c r="D68" t="n">
-        <v>3308.2327147143</v>
+        <v>2149.58283644135</v>
       </c>
       <c r="E68" t="n">
-        <v>7557.63203235152</v>
+        <v>4621.69370253579</v>
       </c>
       <c r="F68" t="n">
-        <v>19298.7874025092</v>
-      </c>
-      <c r="G68" t="n">
-        <v>19259.5929720809</v>
-      </c>
-      <c r="H68" t="n">
-        <v>31743.8408588888</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1158.64987827295</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2935.93832981573</v>
-      </c>
-      <c r="K68" t="n">
-        <v>6827.460929402898</v>
+        <v>12471.3264731063</v>
       </c>
     </row>
     <row r="69">
@@ -2985,21 +1955,6 @@
       <c r="F69" t="n">
         <v>28697.4021024613</v>
       </c>
-      <c r="G69" t="n">
-        <v>24458.6554171528</v>
-      </c>
-      <c r="H69" t="n">
-        <v>42650.0618694085</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2124.37745706329</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4573.874554396381</v>
-      </c>
-      <c r="K69" t="n">
-        <v>9398.614699952101</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -3022,94 +1977,49 @@
       <c r="F70" t="n">
         <v>6961.21570469037</v>
       </c>
-      <c r="G70" t="n">
-        <v>5298.47385539264</v>
-      </c>
-      <c r="H70" t="n">
-        <v>16301.734516273</v>
-      </c>
-      <c r="I70" t="n">
-        <v>815.053066131956</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2203.44049633139</v>
-      </c>
-      <c r="K70" t="n">
-        <v>6961.21570469037</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>19638.2550355366</v>
+        <v>40420.6976900418</v>
       </c>
       <c r="C71" t="n">
-        <v>42005.8379735207</v>
+        <v>76431.6661563974</v>
       </c>
       <c r="D71" t="n">
-        <v>2276.02381912382</v>
+        <v>3479.81823889243</v>
       </c>
       <c r="E71" t="n">
-        <v>4812.40077069046</v>
+        <v>7884.85427215346</v>
       </c>
       <c r="F71" t="n">
-        <v>12854.8031006761</v>
-      </c>
-      <c r="G71" t="n">
-        <v>14339.78118014396</v>
-      </c>
-      <c r="H71" t="n">
-        <v>25704.1034572477</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1460.970752991864</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2608.96027435907</v>
-      </c>
-      <c r="K71" t="n">
-        <v>5893.587395985729</v>
+        <v>20512.7983043714</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>40420.6976900418</v>
+        <v>19638.2550355366</v>
       </c>
       <c r="C72" t="n">
-        <v>76431.6661563974</v>
+        <v>42005.8379735207</v>
       </c>
       <c r="D72" t="n">
-        <v>3479.81823889243</v>
+        <v>2276.02381912382</v>
       </c>
       <c r="E72" t="n">
-        <v>7884.85427215346</v>
+        <v>4812.40077069046</v>
       </c>
       <c r="F72" t="n">
-        <v>20512.7983043714</v>
-      </c>
-      <c r="G72" t="n">
-        <v>20782.4426545052</v>
-      </c>
-      <c r="H72" t="n">
-        <v>34425.82818287671</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1203.79441976861</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3072.453501463</v>
-      </c>
-      <c r="K72" t="n">
-        <v>7657.995203695302</v>
+        <v>12854.8031006761</v>
       </c>
     </row>
     <row r="73">
@@ -3133,21 +2043,6 @@
       <c r="F73" t="n">
         <v>33064.3456836352</v>
       </c>
-      <c r="G73" t="n">
-        <v>25645.752931319</v>
-      </c>
-      <c r="H73" t="n">
-        <v>47536.26912020659</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2295.88769704833</v>
-      </c>
-      <c r="J73" t="n">
-        <v>4687.54949161224</v>
-      </c>
-      <c r="K73" t="n">
-        <v>12551.5473792638</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3170,94 +2065,49 @@
       <c r="F74" t="n">
         <v>9532.460263454701</v>
       </c>
-      <c r="G74" t="n">
-        <v>5687.1967471914</v>
-      </c>
-      <c r="H74" t="n">
-        <v>19309.6559714555</v>
-      </c>
-      <c r="I74" t="n">
-        <v>815.9561960947</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2157.2226503195</v>
-      </c>
-      <c r="K74" t="n">
-        <v>9532.460263454701</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>20558.5539835119</v>
+        <v>43265.695913865</v>
       </c>
       <c r="C75" t="n">
-        <v>47994.5332277615</v>
+        <v>86705.3733674531</v>
       </c>
       <c r="D75" t="n">
-        <v>2300.1279215297</v>
+        <v>3537.5841025276</v>
       </c>
       <c r="E75" t="n">
-        <v>4788.3888143962</v>
+        <v>7961.194283379</v>
       </c>
       <c r="F75" t="n">
-        <v>17705.7461205825</v>
-      </c>
-      <c r="G75" t="n">
-        <v>14871.3572363205</v>
-      </c>
-      <c r="H75" t="n">
-        <v>28684.877256306</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1484.171725435</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2631.1661640767</v>
-      </c>
-      <c r="K75" t="n">
-        <v>8173.285857127797</v>
+        <v>27431.8339991129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>43265.695913865</v>
+        <v>20558.5539835119</v>
       </c>
       <c r="C76" t="n">
-        <v>86705.3733674531</v>
+        <v>47994.5332277615</v>
       </c>
       <c r="D76" t="n">
-        <v>3537.5841025276</v>
+        <v>2300.1279215297</v>
       </c>
       <c r="E76" t="n">
-        <v>7961.194283379</v>
+        <v>4788.3888143962</v>
       </c>
       <c r="F76" t="n">
-        <v>27431.8339991129</v>
-      </c>
-      <c r="G76" t="n">
-        <v>22707.1419303531</v>
-      </c>
-      <c r="H76" t="n">
-        <v>38710.84013969159</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1237.4561809979</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3172.8054689828</v>
-      </c>
-      <c r="K76" t="n">
-        <v>9726.087878530401</v>
+        <v>17705.7461205825</v>
       </c>
     </row>
     <row r="77">
@@ -3281,94 +2131,49 @@
       <c r="F77" t="n">
         <v>10767.67</v>
       </c>
-      <c r="G77" t="n">
-        <v>6311.99</v>
-      </c>
-      <c r="H77" t="n">
-        <v>21587.29</v>
-      </c>
-      <c r="I77" t="n">
-        <v>880.47</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2435.57</v>
-      </c>
-      <c r="K77" t="n">
-        <v>10767.67</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>22348.0629735716</v>
+        <v>46671.1320359725</v>
       </c>
       <c r="C78" t="n">
-        <v>52541.0598613999</v>
+        <v>92863.4216881285</v>
       </c>
       <c r="D78" t="n">
-        <v>2514.5760045566</v>
+        <v>3841.2527978174</v>
       </c>
       <c r="E78" t="n">
-        <v>5523.0926627966</v>
+        <v>9129.5908377059</v>
       </c>
       <c r="F78" t="n">
-        <v>19298.2474848857</v>
-      </c>
-      <c r="G78" t="n">
-        <v>16036.0729735716</v>
-      </c>
-      <c r="H78" t="n">
-        <v>30953.7698613999</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1634.1060045566</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3087.5226627966</v>
-      </c>
-      <c r="K78" t="n">
-        <v>8530.577484885698</v>
+        <v>28328.9719450687</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>46671.1320359725</v>
+        <v>22348.0629735716</v>
       </c>
       <c r="C79" t="n">
-        <v>92863.4216881285</v>
+        <v>52541.0598613999</v>
       </c>
       <c r="D79" t="n">
-        <v>3841.2527978174</v>
+        <v>2514.5760045566</v>
       </c>
       <c r="E79" t="n">
-        <v>9129.5908377059</v>
+        <v>5523.0926627966</v>
       </c>
       <c r="F79" t="n">
-        <v>28328.9719450687</v>
-      </c>
-      <c r="G79" t="n">
-        <v>24323.0690624009</v>
-      </c>
-      <c r="H79" t="n">
-        <v>40322.36182672859</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1326.6767932608</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3606.4981749093</v>
-      </c>
-      <c r="K79" t="n">
-        <v>9030.724460183003</v>
+        <v>19298.2474848857</v>
       </c>
     </row>
   </sheetData>
